--- a/backend/formatting.xlsx
+++ b/backend/formatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdleg\Downloads\Programs\Mac_Calendar\v1\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6DF7E6-B67D-40E1-B3D5-86B6F3AB906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242BF1E-68C6-4F3A-8BDA-D2FA57EBACF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{E995DC54-3819-43BE-8032-6F2DF4EEAA3C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="74">
   <si>
     <t>Start</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>room</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>We</t>
+  </si>
+  <si>
+    <t>Room_23</t>
   </si>
 </sst>
 </file>
@@ -638,7 +647,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,105 +844,134 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2241</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11">
+        <v>13.3</v>
+      </c>
+      <c r="H11">
+        <v>14.2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" t="s">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>1</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2241</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
         <v>9</v>
       </c>
     </row>
